--- a/後台.xlsx
+++ b/後台.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\取得原始碼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\souceGet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="209">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,125 +763,6 @@
   </si>
   <si>
     <t>/lottery/CTBSC/CTXYFT</t>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/index</t>
-  </si>
-  <si>
-    <t>首頁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/acc/index</t>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/banproxyRebate/index</t>
-  </si>
-  <si>
-    <t>禁止代理返點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/acc/formAdd?parentName=</t>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/banproxyRebate/formAdd</t>
-  </si>
-  <si>
-    <t>新增代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/promotion/index</t>
-  </si>
-  <si>
-    <t>推廣鏈接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/promotion/toAdd</t>
-  </si>
-  <si>
-    <t>新增推廣鏈接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/level/vipGrowthValueSetIndex</t>
-  </si>
-  <si>
-    <t>用戶等級_參數設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/level/userVipLevelSetIndex</t>
-  </si>
-  <si>
-    <t>用戶等級_等級設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/level/vipExperiencesIndex</t>
-  </si>
-  <si>
-    <t>用戶等級_會員等級報表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/acc/testAccountIndex</t>
-  </si>
-  <si>
-    <t>代理會員_測試帳號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/user/promotion/testAccountIndex</t>
-  </si>
-  <si>
-    <t>推廣鏈接_測試帳號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用戶管理_代理會員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/cash/depositAndDraw/index</t>
-  </si>
-  <si>
-    <t>現金系統_存取款模式設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存款模式管理_新增模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/cash/depositAndDraw/formAdd</t>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/cash/depositAndDraw/drawIndex</t>
-  </si>
-  <si>
-    <t>取款模式管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取款模式管理_新增模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/cash/depositAndDraw/drawAdd</t>
-  </si>
-  <si>
-    <t>http://winvip66platform.acgtest.com/cash/companyAccount/index</t>
-  </si>
-  <si>
-    <t>收款帳戶管理_線下入款帳戶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1211,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K98"/>
+  <dimension ref="B1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1103,7 @@
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1242,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -1252,14 +1133,8 @@
       <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="J2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1269,14 +1144,8 @@
       <c r="D3" t="s">
         <v>113</v>
       </c>
-      <c r="J3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1286,14 +1155,8 @@
       <c r="D4" t="s">
         <v>114</v>
       </c>
-      <c r="J4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1303,14 +1166,8 @@
       <c r="D5" t="s">
         <v>115</v>
       </c>
-      <c r="J5" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1320,14 +1177,8 @@
       <c r="D6" t="s">
         <v>116</v>
       </c>
-      <c r="J6" t="s">
-        <v>217</v>
-      </c>
-      <c r="K6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -1337,14 +1188,8 @@
       <c r="D7" t="s">
         <v>117</v>
       </c>
-      <c r="J7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1354,14 +1199,8 @@
       <c r="D8" t="s">
         <v>118</v>
       </c>
-      <c r="J8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1371,14 +1210,8 @@
       <c r="D9" t="s">
         <v>119</v>
       </c>
-      <c r="J9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1388,14 +1221,8 @@
       <c r="D10" t="s">
         <v>120</v>
       </c>
-      <c r="J10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1405,14 +1232,8 @@
       <c r="D11" t="s">
         <v>121</v>
       </c>
-      <c r="J11" t="s">
-        <v>227</v>
-      </c>
-      <c r="K11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1422,14 +1243,8 @@
       <c r="D12" t="s">
         <v>122</v>
       </c>
-      <c r="J12" t="s">
-        <v>229</v>
-      </c>
-      <c r="K12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -1439,14 +1254,8 @@
       <c r="D13" t="s">
         <v>123</v>
       </c>
-      <c r="J13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1456,14 +1265,8 @@
       <c r="D14" t="s">
         <v>124</v>
       </c>
-      <c r="J14" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1473,14 +1276,8 @@
       <c r="D15" t="s">
         <v>125</v>
       </c>
-      <c r="J15" t="s">
-        <v>235</v>
-      </c>
-      <c r="K15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1490,14 +1287,8 @@
       <c r="D16" t="s">
         <v>126</v>
       </c>
-      <c r="J16" t="s">
-        <v>238</v>
-      </c>
-      <c r="K16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1507,14 +1298,8 @@
       <c r="D17" t="s">
         <v>127</v>
       </c>
-      <c r="J17" t="s">
-        <v>239</v>
-      </c>
-      <c r="K17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1524,14 +1309,8 @@
       <c r="D18" t="s">
         <v>128</v>
       </c>
-      <c r="J18" t="s">
-        <v>242</v>
-      </c>
-      <c r="K18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +1321,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1553,7 +1332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1564,7 +1343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -1575,7 +1354,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -1586,7 +1365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1376,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -1608,7 +1387,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>39</v>
       </c>
@@ -1619,7 +1398,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -1630,7 +1409,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1641,7 +1420,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>42</v>
       </c>
@@ -1652,7 +1431,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>43</v>
       </c>
@@ -1663,7 +1442,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>44</v>
       </c>
@@ -1674,7 +1453,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>9</v>
       </c>
